--- a/results.xlsx
+++ b/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anony\Dropbox\Case Western\2019-2020\Fall\Networks\Projects\Project 2\rawsocket-distance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{463A2ABF-D948-4CD2-ABBE-0148C3959CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A018FF09-610C-452C-9A6F-692AE726C89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>site</t>
   </si>
@@ -61,9 +61,6 @@
     <t>indiamart.com</t>
   </si>
   <si>
-    <t>rambler.ru</t>
-  </si>
-  <si>
     <t>google.com.ua</t>
   </si>
   <si>
@@ -76,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,7 +742,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.85599999999999998</c:v>
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,7 +810,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>84.683000000000007</c:v>
+                  <c:v>86.341999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +866,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,7 +878,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>0.60499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +932,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,7 +944,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>267.69299999999998</c:v>
+                  <c:v>251.22899999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +998,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,7 +1010,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>120.105</c:v>
+                  <c:v>120.264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,7 +1066,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,7 +1078,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.58399999999999996</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1134,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,7 +1146,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.55599999999999905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,81 +1159,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="8"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>results!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rambler.ru</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>results!$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>results!$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>122.806</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6522-44D0-8B37-FAE05C6E2890}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>results!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1272,7 +1199,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$10</c:f>
+              <c:f>results!$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1284,12 +1211,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$10</c:f>
+              <c:f>results!$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.76300000000000001</c:v>
+                  <c:v>0.92100000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,10 +1230,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$11</c:f>
+              <c:f>results!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1342,24 +1269,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$11</c:f>
+              <c:f>results!$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$11</c:f>
+              <c:f>results!$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.64700000000000002</c:v>
+                  <c:v>0.61799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,10 +1300,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$12</c:f>
+              <c:f>results!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1412,24 +1339,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$12</c:f>
+              <c:f>results!$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$12</c:f>
+              <c:f>results!$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>124.85899999999999</c:v>
+                  <c:v>123.261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,7 +2337,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2735,11 +2662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.85599999999999998</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2798,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>84.683000000000007</v>
+        <v>86.341999999999999</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2815,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.53800000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2835,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>267.69299999999998</v>
+        <v>251.22899999999899</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2855,10 +2782,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>120.105</v>
+        <v>120.264</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2875,10 +2802,10 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.58399999999999996</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2895,10 +2822,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>0.55599999999999905</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2915,10 +2842,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>122.806</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2935,10 +2862,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.76300000000000001</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2955,10 +2882,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.64700000000000002</v>
+        <v>123.261</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2967,26 +2894,6 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>124.85899999999999</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
         <v>1</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anony\Dropbox\Case Western\2019-2020\Fall\Networks\Projects\Project 2\rawsocket-distance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A018FF09-610C-452C-9A6F-692AE726C89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A07A0-A133-42AA-A57A-913B06EC508A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>site</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>lenta.ru</t>
+  </si>
+  <si>
+    <t>rambler.ru</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -696,74 +699,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>youtube.com</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>results!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>results!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.94099999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6522-44D0-8B37-FAE05C6E2890}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>results!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>onlinevideoconverter.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -793,24 +728,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$3</c:f>
+              <c:f>results!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$3</c:f>
+              <c:f>results!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>86.341999999999999</c:v>
+                  <c:v>0.60499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,14 +759,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$4</c:f>
+              <c:f>results!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1337x.to</c:v>
+                  <c:v>onlinevideoconverter.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -861,24 +796,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$4</c:f>
+              <c:f>results!$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$4</c:f>
+              <c:f>results!$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>86.382999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,14 +827,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$5</c:f>
+              <c:f>results!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>znds.com</c:v>
+                  <c:v>1337x.to</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -927,24 +862,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$5</c:f>
+              <c:f>results!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$5</c:f>
+              <c:f>results!$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>251.22899999999899</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,14 +893,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$6</c:f>
+              <c:f>results!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wildberries.ru</c:v>
+                  <c:v>znds.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -993,24 +928,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$6</c:f>
+              <c:f>results!$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$6</c:f>
+              <c:f>results!$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>120.264</c:v>
+                  <c:v>250.09200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,14 +959,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$7</c:f>
+              <c:f>results!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>crunchyroll.com</c:v>
+                  <c:v>wildberries.ru</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1061,24 +996,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$7</c:f>
+              <c:f>results!$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$7</c:f>
+              <c:f>results!$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.59299999999999997</c:v>
+                  <c:v>119.985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,14 +1027,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$8</c:f>
+              <c:f>results!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>indiamart.com</c:v>
+                  <c:v>crunchyroll.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,24 +1064,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$8</c:f>
+              <c:f>results!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$8</c:f>
+              <c:f>results!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.55599999999999905</c:v>
+                  <c:v>0.57299999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,14 +1095,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$9</c:f>
+              <c:f>results!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>google.com.ua</c:v>
+                  <c:v>indiamart.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1199,24 +1134,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$9</c:f>
+              <c:f>results!$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$9</c:f>
+              <c:f>results!$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.92100000000000004</c:v>
+                  <c:v>0.76800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,14 +1165,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$10</c:f>
+              <c:f>results!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>padlet.com</c:v>
+                  <c:v>rambler.ru</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1269,24 +1204,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$B$10</c:f>
+              <c:f>results!$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$C$10</c:f>
+              <c:f>results!$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.61799999999999999</c:v>
+                  <c:v>123.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,14 +1235,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$11</c:f>
+              <c:f>results!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lenta.ru</c:v>
+                  <c:v>google.com.ua</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1339,12 +1274,80 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>results!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6522-44D0-8B37-FAE05C6E2890}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>padlet.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>results!$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +1359,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>123.261</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1367,77 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6522-44D0-8B37-FAE05C6E2890}"/>
+              <c16:uniqueId val="{00000000-72DC-49F0-9155-7531AD016BE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lenta.ru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>121.054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72DC-49F0-9155-7531AD016BE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2332,12 +2405,12 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2663,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2702,10 +2775,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.94099999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2725,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>86.341999999999999</v>
+        <v>86.382999999999996</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2745,7 +2818,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.60499999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2765,7 +2838,7 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>251.22899999999899</v>
+        <v>250.09200000000001</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2782,10 +2855,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>120.264</v>
+        <v>119.985</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2805,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.59299999999999997</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2825,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.55599999999999905</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2839,13 +2912,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.92100000000000004</v>
+        <v>123.85</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2859,13 +2932,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.61799999999999999</v>
+        <v>1.077</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2879,13 +2952,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>123.261</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2894,6 +2967,26 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>121.054</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
         <v>1</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anony\Dropbox\Case Western\2019-2020\Fall\Networks\Projects\Project 2\rawsocket-distance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A07A0-A133-42AA-A57A-913B06EC508A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CECB3-C480-4F13-B5BF-732B4D58AC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>site</t>
-  </si>
-  <si>
-    <t>hops</t>
   </si>
   <si>
     <t>time</t>
@@ -71,6 +76,30 @@
   </si>
   <si>
     <t>rambler.ru</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Std Deviation:</t>
+  </si>
+  <si>
+    <t>Low Average</t>
+  </si>
+  <si>
+    <t>Low Std. Dev</t>
+  </si>
+  <si>
+    <t>High Std. Dev</t>
+  </si>
+  <si>
+    <t>High Average</t>
+  </si>
+  <si>
+    <t>hops to target</t>
+  </si>
+  <si>
+    <t>time/hop (corrected)</t>
   </si>
 </sst>
 </file>
@@ -2402,16 +2431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2736,43 +2765,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -2789,10 +2824,14 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="G2">
+        <f>C2/(B2*2)</f>
+        <v>2.5208333333333333E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -2809,10 +2848,14 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="0">C3/(B3*2)</f>
+        <v>2.6994687499999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -2829,10 +2872,14 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3.3055555555555553E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -2849,10 +2896,14 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.8094615384615391</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -2869,10 +2920,14 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.7269318181818183</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -2889,10 +2944,14 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.1833333333333332E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -2909,10 +2968,14 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3.8400000000000004E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -2929,10 +2992,14 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3.2592105263157891</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2949,10 +3016,14 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>5.3849999999999995E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -2969,10 +3040,14 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.6777777777777777E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -2988,6 +3063,64 @@
       </c>
       <c r="F12" t="b">
         <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.1856315789473686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(G2:G12)</f>
+        <v>1.5363481101733194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <f>_xlfn.STDEV.P(G2:G12)</f>
+        <v>1.7233518761999724</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(G2,G4,G7,G8,G10,G11)</f>
+        <v>3.6520833333333329E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.STDEV.S(G2,G4,G7,G10,G11)</f>
+        <v>1.0742593342782488E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(G3,G5,G6,G9,G12)</f>
+        <v>3.3361408423813024</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.STDEV.S(G5,G3,G6,G9,G12)</f>
+        <v>0.86251553229362321</v>
       </c>
     </row>
   </sheetData>
